--- a/qNa.xlsx
+++ b/qNa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\nodeJS Projects\question-game-mongo\question-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8E7190-75D3-4249-89FB-7028AE1E049F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452E3474-7C1E-4946-BFBF-3850DCEEAF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{B5493750-8CEC-4764-89FF-16A24E89CE02}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="106">
   <si>
     <t>you could go to dinner with one of them</t>
   </si>
@@ -105,9 +105,6 @@
     <t>questionID</t>
   </si>
   <si>
-    <t>you could have a superpower</t>
-  </si>
-  <si>
     <t>Kamala Harris</t>
   </si>
   <si>
@@ -198,24 +195,6 @@
     <t>solstice</t>
   </si>
   <si>
-    <t>Invisibility</t>
-  </si>
-  <si>
-    <t>invisible</t>
-  </si>
-  <si>
-    <t>Flying</t>
-  </si>
-  <si>
-    <t>flying</t>
-  </si>
-  <si>
-    <t>Time Travel</t>
-  </si>
-  <si>
-    <t>timetravel</t>
-  </si>
-  <si>
     <t>you could buy one car with memecoin profits</t>
   </si>
   <si>
@@ -312,9 +291,6 @@
     <t>mev</t>
   </si>
   <si>
-    <t>you could choose the next Binance listing?</t>
-  </si>
-  <si>
     <t>Griffain</t>
   </si>
   <si>
@@ -343,6 +319,42 @@
   </si>
   <si>
     <t>mrpunk</t>
+  </si>
+  <si>
+    <t>you could choose the next Binance listing</t>
+  </si>
+  <si>
+    <t>one of them was more likely to launch a rug</t>
+  </si>
+  <si>
+    <t>Ronaldo</t>
+  </si>
+  <si>
+    <t>cristiano</t>
+  </si>
+  <si>
+    <t>Sophie Rain</t>
+  </si>
+  <si>
+    <t>sophie</t>
+  </si>
+  <si>
+    <t>Livvy Dune</t>
+  </si>
+  <si>
+    <t>livvy</t>
+  </si>
+  <si>
+    <t>Mr. Beast</t>
+  </si>
+  <si>
+    <t>mrBeast</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>Ishowspeed</t>
   </si>
 </sst>
 </file>
@@ -723,7 +735,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -769,7 +781,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C8" si="0">_xlfn.CONCAT("Q",A3)</f>
@@ -786,7 +798,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -794,7 +806,7 @@
       </c>
       <c r="D4" t="str">
         <f t="shared" si="1"/>
-        <v>wat &lt;span class='ifOrangeColor'&gt;$if&lt;/span&gt; you could have a superpower?</v>
+        <v>wat &lt;span class='ifOrangeColor'&gt;$if&lt;/span&gt; one of them was more likely to launch a rug?</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -803,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -820,7 +832,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -837,7 +849,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -854,7 +866,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -862,7 +874,7 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" si="1"/>
-        <v>wat &lt;span class='ifOrangeColor'&gt;$if&lt;/span&gt; you could choose the next Binance listing??</v>
+        <v>wat &lt;span class='ifOrangeColor'&gt;$if&lt;/span&gt; you could choose the next Binance listing?</v>
       </c>
     </row>
   </sheetData>
@@ -872,10 +884,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A986139-330D-43C7-B852-0F4329F65909}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -915,8 +927,8 @@
         <v>8</v>
       </c>
       <c r="E2" t="str">
-        <f>_xlfn.CONCAT("/images/",C2,".",D2)</f>
-        <v>/images/elon.jpg</v>
+        <f>_xlfn.CONCAT("images/",C2,".",D2)</f>
+        <v>images/elon.jpg</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -933,8 +945,8 @@
         <v>8</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E6" si="0">_xlfn.CONCAT("/images/",C3,".",D3)</f>
-        <v>/images/vitalik.jpg</v>
+        <f t="shared" ref="E3:E59" si="0">_xlfn.CONCAT("images/",C3,".",D3)</f>
+        <v>images/vitalik.jpg</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -952,7 +964,7 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>/images/trump.jpg</v>
+        <v>images/trump.jpg</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -970,7 +982,7 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>/images/mitch.jpg</v>
+        <v>images/mitch.jpg</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -988,7 +1000,7 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>/images/lyxe.jpg</v>
+        <v>images/lyxe.jpg</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -996,17 +1008,17 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7" t="str">
-        <f t="shared" ref="E7:E38" si="1">_xlfn.CONCAT("/images/",C7,".",D7)</f>
-        <v>/images/kamala.jpeg</v>
+        <f t="shared" si="0"/>
+        <v>images/kamala.jpeg</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1014,17 +1026,17 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="1"/>
-        <v>/images/jakey.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/jakey.jpg</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1032,17 +1044,17 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="1"/>
-        <v>/images/mrpunk.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/mrpunk.jpg</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1050,17 +1062,17 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
         <v>30</v>
       </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="1"/>
-        <v>/images/patty.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/patty.jpg</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1068,17 +1080,17 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="1"/>
-        <v>/images/ansem.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/ansem.jpg</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1086,17 +1098,17 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
         <v>36</v>
       </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="1"/>
-        <v>/images/daumen.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/daumen.jpg</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1104,17 +1116,17 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
       <c r="D13" t="s">
         <v>8</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="1"/>
-        <v>/images/sugar.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/sugar.jpg</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1122,17 +1134,17 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="1"/>
-        <v>/images/mememe.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/mememe.jpg</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1140,17 +1152,17 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="1"/>
-        <v>/images/erik.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/erik.jpg</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1158,17 +1170,17 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
         <v>43</v>
       </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
       <c r="D16" t="s">
         <v>8</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="1"/>
-        <v>/images/joji.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/joji.jpg</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1176,17 +1188,17 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="1"/>
-        <v>/images/a1lon.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/a1lon.jpg</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1194,17 +1206,17 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
         <v>47</v>
       </c>
-      <c r="C18" t="s">
-        <v>48</v>
-      </c>
       <c r="D18" t="s">
         <v>8</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="1"/>
-        <v>/images/crash.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/crash.jpg</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1212,17 +1224,17 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
         <v>49</v>
       </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="1"/>
-        <v>/images/dior.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/dior.jpg</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1230,17 +1242,17 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
         <v>51</v>
       </c>
-      <c r="C20" t="s">
-        <v>52</v>
-      </c>
       <c r="D20" t="s">
         <v>8</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="1"/>
-        <v>/images/solstice.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/solstice.jpg</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1248,17 +1260,17 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="1"/>
-        <v>/images/pelosi.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/pelosi.jpg</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1266,17 +1278,17 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="1"/>
-        <v>/images/buffett.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/buffett.jpg</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1284,17 +1296,17 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
         <v>32</v>
       </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" ref="E23:E25" si="2">_xlfn.CONCAT("/images/",C23,".",D23)</f>
-        <v>/images/ansem.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/ansem.jpg</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1311,8 +1323,8 @@
         <v>8</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="2"/>
-        <v>/images/mitch.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/mitch.jpg</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1329,8 +1341,8 @@
         <v>8</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="2"/>
-        <v>/images/lyxe.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/lyxe.jpg</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1338,17 +1350,17 @@
         <v>17</v>
       </c>
       <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
         <v>47</v>
       </c>
-      <c r="C26" t="s">
-        <v>48</v>
-      </c>
       <c r="D26" t="s">
         <v>8</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" ref="E26" si="3">_xlfn.CONCAT("/images/",C26,".",D26)</f>
-        <v>/images/crash.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/crash.jpg</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1356,556 +1368,593 @@
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
       </c>
-      <c r="E27" t="s">
-        <v>79</v>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>images/burry.jpg</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="1"/>
-        <v>/images/invisible.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/cristiano.jpg</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="1"/>
-        <v>/images/flying.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/sophie.jpg</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="1"/>
-        <v>/images/timetravel.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/livvy.jpg</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="1"/>
-        <v>/images/g63.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/mrBeast.jpg</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="1"/>
-        <v>/images/gt3rs.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/speed.jpg</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="1"/>
-        <v>/images/svj.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/g63.jpg</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="1"/>
-        <v>/images/enzo.png</v>
+        <f t="shared" si="0"/>
+        <v>images/gt3rs.jpg</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="1"/>
-        <v>/images/chiron.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/svj.jpg</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="1"/>
-        <v>/images/zonda.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/enzo.png</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="1"/>
-        <v>/images/mitch.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/chiron.jpg</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="1"/>
-        <v>/images/lyxe.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/zonda.jpg</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" ref="E39:E49" si="4">_xlfn.CONCAT("/images/",C39,".",D39)</f>
-        <v>/images/jakey.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/mitch.jpg</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="4"/>
-        <v>/images/punk.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/lyxe.jpg</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="4"/>
-        <v>/images/patty.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/jakey.jpg</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D42" t="s">
         <v>8</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="4"/>
-        <v>/images/ansem.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/punk.jpg</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="4"/>
-        <v>/images/daumen.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/patty.jpg</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="4"/>
-        <v>/images/sugar.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/ansem.jpg</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="4"/>
-        <v>/images/mememe.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/daumen.jpg</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C46" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="4"/>
-        <v>/images/erik.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/sugar.jpg</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="4"/>
-        <v>/images/joji.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/mememe.jpg</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="4"/>
-        <v>/images/dior.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/erik.jpg</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="4"/>
-        <v>/images/solstice.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/joji.jpg</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="D50" t="s">
         <v>8</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" ref="E50:E57" si="5">_xlfn.CONCAT("/images/",C50,".",D50)</f>
-        <v>/images/rug.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/dior.jpg</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="D51" t="s">
         <v>8</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="5"/>
-        <v>/images/runner.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/solstice.jpg</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C52" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="5"/>
-        <v>/images/mev.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/rug.jpg</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B53" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C53" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D53" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="5"/>
-        <v>/images/griffain.png</v>
+        <f t="shared" si="0"/>
+        <v>images/runner.jpg</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" t="s">
         <v>83</v>
       </c>
-      <c r="B54" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" t="s">
-        <v>95</v>
-      </c>
       <c r="D54" t="s">
         <v>8</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="5"/>
-        <v>/images/alch.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/mev.jpg</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C55" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D55" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="5"/>
-        <v>/images/retardio.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/griffain.png</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C56" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="5"/>
-        <v>/images/mother.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/alch.jpg</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B57" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C57" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="5"/>
-        <v>/images/GIGA.jpg</v>
+        <f t="shared" si="0"/>
+        <v>images/retardio.jpg</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>images/mother.jpg</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>images/GIGA.jpg</v>
       </c>
     </row>
   </sheetData>

--- a/qNa.xlsx
+++ b/qNa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\nodeJS Projects\question-game-mongo\question-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452E3474-7C1E-4946-BFBF-3850DCEEAF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3A17D0-24ED-40F9-920D-215BAFF26A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{B5493750-8CEC-4764-89FF-16A24E89CE02}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="105">
   <si>
     <t>you could go to dinner with one of them</t>
   </si>
@@ -316,9 +316,6 @@
   </si>
   <si>
     <t>GIGA</t>
-  </si>
-  <si>
-    <t>mrpunk</t>
   </si>
   <si>
     <t>you could choose the next Binance listing</t>
@@ -798,7 +795,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -866,7 +863,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -886,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A986139-330D-43C7-B852-0F4329F65909}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1047,14 +1044,14 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>images/mrpunk.jpg</v>
+        <v>images/punk.jpg</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1386,10 +1383,10 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" t="s">
         <v>96</v>
-      </c>
-      <c r="C28" t="s">
-        <v>97</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
@@ -1404,10 +1401,10 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" t="s">
         <v>98</v>
-      </c>
-      <c r="C29" t="s">
-        <v>99</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -1422,10 +1419,10 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" t="s">
         <v>100</v>
-      </c>
-      <c r="C30" t="s">
-        <v>101</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
@@ -1440,10 +1437,10 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" t="s">
         <v>102</v>
-      </c>
-      <c r="C31" t="s">
-        <v>103</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
@@ -1458,10 +1455,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>

--- a/qNa.xlsx
+++ b/qNa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\nodeJS Projects\question-game-mongo\question-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3A17D0-24ED-40F9-920D-215BAFF26A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34202A06-B1D3-44E7-BCA3-1D06AEBC87D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{B5493750-8CEC-4764-89FF-16A24E89CE02}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="106">
   <si>
     <t>you could go to dinner with one of them</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>Ishowspeed</t>
+  </si>
+  <si>
+    <t>JPG</t>
   </si>
 </sst>
 </file>
@@ -883,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A986139-330D-43C7-B852-0F4329F65909}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1821,11 +1824,11 @@
         <v>78</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="0"/>
-        <v>images/rug.jpg</v>
+        <v>images/rug.JPG</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1839,11 +1842,11 @@
         <v>80</v>
       </c>
       <c r="D53" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="0"/>
-        <v>images/runner.jpg</v>
+        <v>images/runner.JPG</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">

--- a/qNa.xlsx
+++ b/qNa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\nodeJS Projects\question-game-mongo\question-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34202A06-B1D3-44E7-BCA3-1D06AEBC87D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FA32CD-B11A-4641-BE0C-7598604E6DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{B5493750-8CEC-4764-89FF-16A24E89CE02}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{B5493750-8CEC-4764-89FF-16A24E89CE02}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="153">
   <si>
     <t>you could go to dinner with one of them</t>
   </si>
@@ -355,6 +355,147 @@
   </si>
   <si>
     <t>JPG</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Bitcoin</t>
+  </si>
+  <si>
+    <t>bitcoin</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>eth</t>
+  </si>
+  <si>
+    <t>Solana</t>
+  </si>
+  <si>
+    <t>sol</t>
+  </si>
+  <si>
+    <t>Ripple</t>
+  </si>
+  <si>
+    <t>xrp</t>
+  </si>
+  <si>
+    <t>Tron</t>
+  </si>
+  <si>
+    <t>tron</t>
+  </si>
+  <si>
+    <t>Sui</t>
+  </si>
+  <si>
+    <t>sui</t>
+  </si>
+  <si>
+    <t>AVAX</t>
+  </si>
+  <si>
+    <t>avax</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>Q10</t>
+  </si>
+  <si>
+    <t>you could only hold one for the cycle</t>
+  </si>
+  <si>
+    <t>you could ban one from Twitter permanently</t>
+  </si>
+  <si>
+    <t>Mezoteric</t>
+  </si>
+  <si>
+    <t>mezoteric</t>
+  </si>
+  <si>
+    <t>Kook</t>
+  </si>
+  <si>
+    <t>kook</t>
+  </si>
+  <si>
+    <t>one meta had to die forever</t>
+  </si>
+  <si>
+    <t>Celeb</t>
+  </si>
+  <si>
+    <t>Iggy</t>
+  </si>
+  <si>
+    <t>dogs</t>
+  </si>
+  <si>
+    <t>wif</t>
+  </si>
+  <si>
+    <t>cats</t>
+  </si>
+  <si>
+    <t>popcat</t>
+  </si>
+  <si>
+    <t>TikTok</t>
+  </si>
+  <si>
+    <t>tiktok</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>ai</t>
+  </si>
+  <si>
+    <t>Fart</t>
+  </si>
+  <si>
+    <t>fart</t>
+  </si>
+  <si>
+    <t>Racist</t>
+  </si>
+  <si>
+    <t>racism</t>
+  </si>
+  <si>
+    <t>boden</t>
+  </si>
+  <si>
+    <t>Poorly drawn</t>
+  </si>
+  <si>
+    <t>tokenwifhat</t>
+  </si>
+  <si>
+    <t>wifhat</t>
+  </si>
+  <si>
+    <t>Pepe</t>
+  </si>
+  <si>
+    <t>pepe</t>
+  </si>
+  <si>
+    <t>words for tickers</t>
+  </si>
+  <si>
+    <t>if</t>
   </si>
 </sst>
 </file>
@@ -732,20 +873,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE05C373-7301-457B-97A9-2E78D5550DAF}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.3125" customWidth="1"/>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="77.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="77.5234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -759,7 +900,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -775,7 +916,7 @@
         <v>wat &lt;span class='ifOrangeColor'&gt;$if&lt;/span&gt; you could go to dinner with one of them?</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -784,17 +925,17 @@
         <v>66</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C8" si="0">_xlfn.CONCAT("Q",A3)</f>
+        <f t="shared" ref="C3:C11" si="0">_xlfn.CONCAT("Q",A3)</f>
         <v>Q2</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D8" si="1">_xlfn.CONCAT("wat &lt;span class='ifOrangeColor'&gt;$if&lt;/span&gt; ",B3, "?")</f>
+        <f t="shared" ref="D3:D11" si="1">_xlfn.CONCAT("wat &lt;span class='ifOrangeColor'&gt;$if&lt;/span&gt; ",B3, "?")</f>
         <v>wat &lt;span class='ifOrangeColor'&gt;$if&lt;/span&gt; you had to copy trade one?</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <f t="shared" ref="A4:A8" si="2">A3+1</f>
+        <f t="shared" ref="A4:A9" si="2">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -809,7 +950,7 @@
         <v>wat &lt;span class='ifOrangeColor'&gt;$if&lt;/span&gt; one of them was more likely to launch a rug?</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -826,7 +967,7 @@
         <v>wat &lt;span class='ifOrangeColor'&gt;$if&lt;/span&gt; you could buy one car with memecoin profits?</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -843,7 +984,7 @@
         <v>wat &lt;span class='ifOrangeColor'&gt;$if&lt;/span&gt; you could choose one private group to be in?</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -860,7 +1001,7 @@
         <v>wat &lt;span class='ifOrangeColor'&gt;$if&lt;/span&gt; you choose what hurts more?</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -875,6 +1016,55 @@
       <c r="D8" t="str">
         <f t="shared" si="1"/>
         <v>wat &lt;span class='ifOrangeColor'&gt;$if&lt;/span&gt; you could choose the next Binance listing?</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>Q8</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>wat &lt;span class='ifOrangeColor'&gt;$if&lt;/span&gt; you could only hold one for the cycle?</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>Q9</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>wat &lt;span class='ifOrangeColor'&gt;$if&lt;/span&gt; you could ban one from Twitter permanently?</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>Q10</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>wat &lt;span class='ifOrangeColor'&gt;$if&lt;/span&gt; one meta had to die forever?</v>
       </c>
     </row>
   </sheetData>
@@ -884,19 +1074,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A986139-330D-43C7-B852-0F4329F65909}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1015625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -913,7 +1103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -931,7 +1121,7 @@
         <v>images/elon.jpg</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -945,11 +1135,11 @@
         <v>8</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E59" si="0">_xlfn.CONCAT("images/",C3,".",D3)</f>
+        <f t="shared" ref="E3:E67" si="0">_xlfn.CONCAT("images/",C3,".",D3)</f>
         <v>images/vitalik.jpg</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -967,7 +1157,7 @@
         <v>images/trump.jpg</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -985,7 +1175,7 @@
         <v>images/mitch.jpg</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1003,7 +1193,7 @@
         <v>images/lyxe.jpg</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1021,7 +1211,7 @@
         <v>images/kamala.jpeg</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1039,7 +1229,7 @@
         <v>images/jakey.jpg</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1057,7 +1247,7 @@
         <v>images/punk.jpg</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1075,7 +1265,7 @@
         <v>images/patty.jpg</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1093,7 +1283,7 @@
         <v>images/ansem.jpg</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1111,7 +1301,7 @@
         <v>images/daumen.jpg</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1129,7 +1319,7 @@
         <v>images/sugar.jpg</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1147,7 +1337,7 @@
         <v>images/mememe.jpg</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1165,7 +1355,7 @@
         <v>images/erik.jpg</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1183,7 +1373,7 @@
         <v>images/joji.jpg</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1201,7 +1391,7 @@
         <v>images/a1lon.jpg</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1219,7 +1409,7 @@
         <v>images/crash.jpg</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1237,7 +1427,7 @@
         <v>images/dior.jpg</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1255,7 +1445,7 @@
         <v>images/solstice.jpg</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1273,7 +1463,7 @@
         <v>images/pelosi.jpg</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1291,7 +1481,7 @@
         <v>images/buffett.jpg</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1309,7 +1499,7 @@
         <v>images/ansem.jpg</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1327,7 +1517,7 @@
         <v>images/mitch.jpg</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1345,7 +1535,7 @@
         <v>images/lyxe.jpg</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1363,7 +1553,7 @@
         <v>images/crash.jpg</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1381,7 +1571,7 @@
         <v>images/burry.jpg</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1399,7 +1589,7 @@
         <v>images/cristiano.jpg</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1417,7 +1607,7 @@
         <v>images/sophie.jpg</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1435,7 +1625,7 @@
         <v>images/livvy.jpg</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1453,7 +1643,7 @@
         <v>images/mrBeast.jpg</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1471,7 +1661,7 @@
         <v>images/speed.jpg</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1489,7 +1679,7 @@
         <v>images/g63.jpg</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1507,7 +1697,7 @@
         <v>images/gt3rs.jpg</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1525,7 +1715,7 @@
         <v>images/svj.jpg</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1543,7 +1733,7 @@
         <v>images/enzo.png</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -1561,7 +1751,7 @@
         <v>images/chiron.jpg</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -1579,7 +1769,7 @@
         <v>images/zonda.jpg</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -1597,7 +1787,7 @@
         <v>images/mitch.jpg</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>74</v>
       </c>
@@ -1615,7 +1805,7 @@
         <v>images/lyxe.jpg</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>74</v>
       </c>
@@ -1633,7 +1823,7 @@
         <v>images/jakey.jpg</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>74</v>
       </c>
@@ -1651,7 +1841,7 @@
         <v>images/punk.jpg</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -1669,7 +1859,7 @@
         <v>images/patty.jpg</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>74</v>
       </c>
@@ -1687,7 +1877,7 @@
         <v>images/ansem.jpg</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>74</v>
       </c>
@@ -1705,7 +1895,7 @@
         <v>images/daumen.jpg</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>74</v>
       </c>
@@ -1723,7 +1913,7 @@
         <v>images/sugar.jpg</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>74</v>
       </c>
@@ -1741,7 +1931,7 @@
         <v>images/mememe.jpg</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>74</v>
       </c>
@@ -1759,7 +1949,7 @@
         <v>images/erik.jpg</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -1777,7 +1967,7 @@
         <v>images/joji.jpg</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>74</v>
       </c>
@@ -1795,7 +1985,7 @@
         <v>images/dior.jpg</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>74</v>
       </c>
@@ -1813,7 +2003,7 @@
         <v>images/solstice.jpg</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>75</v>
       </c>
@@ -1831,7 +2021,7 @@
         <v>images/rug.JPG</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>75</v>
       </c>
@@ -1849,7 +2039,7 @@
         <v>images/runner.JPG</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>75</v>
       </c>
@@ -1867,7 +2057,7 @@
         <v>images/mev.jpg</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>76</v>
       </c>
@@ -1885,7 +2075,7 @@
         <v>images/griffain.png</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -1903,7 +2093,7 @@
         <v>images/alch.jpg</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>76</v>
       </c>
@@ -1921,7 +2111,7 @@
         <v>images/retardio.jpg</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>76</v>
       </c>
@@ -1939,7 +2129,7 @@
         <v>images/mother.jpg</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>76</v>
       </c>
@@ -1955,6 +2145,726 @@
       <c r="E59" t="str">
         <f t="shared" si="0"/>
         <v>images/GIGA.jpg</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v>images/apple.jpg</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>images/bitcoin.png</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>images/eth.png</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="0"/>
+        <v>images/sol.png</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" t="s">
+        <v>115</v>
+      </c>
+      <c r="D64" t="s">
+        <v>61</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="0"/>
+        <v>images/xrp.png</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" t="s">
+        <v>107</v>
+      </c>
+      <c r="B65" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" t="s">
+        <v>117</v>
+      </c>
+      <c r="D65" t="s">
+        <v>61</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="0"/>
+        <v>images/tron.png</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" t="s">
+        <v>107</v>
+      </c>
+      <c r="B66" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" t="s">
+        <v>119</v>
+      </c>
+      <c r="D66" t="s">
+        <v>61</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="0"/>
+        <v>images/sui.png</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" t="s">
+        <v>107</v>
+      </c>
+      <c r="B67" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" t="s">
+        <v>121</v>
+      </c>
+      <c r="D67" t="s">
+        <v>61</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="0"/>
+        <v>images/avax.png</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" t="s">
+        <v>122</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" t="str">
+        <f>_xlfn.CONCAT("images/",C68,".",D68)</f>
+        <v>images/elon.jpg</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" t="s">
+        <v>122</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" ref="E69:E99" si="1">_xlfn.CONCAT("images/",C69,".",D69)</f>
+        <v>images/trump.jpg</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="1"/>
+        <v>images/mitch.jpg</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" t="s">
+        <v>122</v>
+      </c>
+      <c r="B71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="1"/>
+        <v>images/lyxe.jpg</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="1"/>
+        <v>images/kamala.jpeg</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" t="s">
+        <v>122</v>
+      </c>
+      <c r="B73" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="1"/>
+        <v>images/jakey.jpg</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="1"/>
+        <v>images/punk.jpg</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" t="s">
+        <v>122</v>
+      </c>
+      <c r="B75" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="1"/>
+        <v>images/patty.jpg</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" t="s">
+        <v>122</v>
+      </c>
+      <c r="B76" t="s">
+        <v>31</v>
+      </c>
+      <c r="C76" t="s">
+        <v>32</v>
+      </c>
+      <c r="D76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="1"/>
+        <v>images/ansem.jpg</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" t="s">
+        <v>122</v>
+      </c>
+      <c r="B77" t="s">
+        <v>35</v>
+      </c>
+      <c r="C77" t="s">
+        <v>36</v>
+      </c>
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="1"/>
+        <v>images/daumen.jpg</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" t="s">
+        <v>122</v>
+      </c>
+      <c r="B78" t="s">
+        <v>40</v>
+      </c>
+      <c r="C78" t="s">
+        <v>41</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="1"/>
+        <v>images/erik.jpg</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" t="s">
+        <v>122</v>
+      </c>
+      <c r="B79" t="s">
+        <v>42</v>
+      </c>
+      <c r="C79" t="s">
+        <v>43</v>
+      </c>
+      <c r="D79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="1"/>
+        <v>images/joji.jpg</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" t="s">
+        <v>122</v>
+      </c>
+      <c r="B80" t="s">
+        <v>45</v>
+      </c>
+      <c r="C80" t="s">
+        <v>44</v>
+      </c>
+      <c r="D80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="1"/>
+        <v>images/a1lon.jpg</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" t="s">
+        <v>122</v>
+      </c>
+      <c r="B81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C81" t="s">
+        <v>47</v>
+      </c>
+      <c r="D81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="1"/>
+        <v>images/crash.jpg</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" t="s">
+        <v>122</v>
+      </c>
+      <c r="B82" t="s">
+        <v>48</v>
+      </c>
+      <c r="C82" t="s">
+        <v>49</v>
+      </c>
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="1"/>
+        <v>images/dior.jpg</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" t="s">
+        <v>122</v>
+      </c>
+      <c r="B83" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" t="s">
+        <v>51</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="1"/>
+        <v>images/solstice.jpg</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" t="s">
+        <v>122</v>
+      </c>
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="1"/>
+        <v>images/lyxe.jpg</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" t="s">
+        <v>122</v>
+      </c>
+      <c r="B85" t="s">
+        <v>46</v>
+      </c>
+      <c r="C85" t="s">
+        <v>47</v>
+      </c>
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="1"/>
+        <v>images/crash.jpg</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" t="s">
+        <v>122</v>
+      </c>
+      <c r="B86" t="s">
+        <v>126</v>
+      </c>
+      <c r="C86" t="s">
+        <v>127</v>
+      </c>
+      <c r="D86" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="1"/>
+        <v>images/mezoteric.jpg</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" t="s">
+        <v>122</v>
+      </c>
+      <c r="B87" t="s">
+        <v>128</v>
+      </c>
+      <c r="C87" t="s">
+        <v>129</v>
+      </c>
+      <c r="D87" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="1"/>
+        <v>images/kook.jpg</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" t="s">
+        <v>122</v>
+      </c>
+      <c r="B88" t="s">
+        <v>132</v>
+      </c>
+      <c r="C88" t="s">
+        <v>91</v>
+      </c>
+      <c r="D88" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="1"/>
+        <v>images/mother.jpg</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" t="s">
+        <v>123</v>
+      </c>
+      <c r="B89" t="s">
+        <v>131</v>
+      </c>
+      <c r="C89" t="s">
+        <v>91</v>
+      </c>
+      <c r="D89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="1"/>
+        <v>images/mother.jpg</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C90" t="s">
+        <v>134</v>
+      </c>
+      <c r="D90" t="s">
+        <v>61</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="1"/>
+        <v>images/wif.png</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" t="s">
+        <v>123</v>
+      </c>
+      <c r="B91" t="s">
+        <v>135</v>
+      </c>
+      <c r="C91" t="s">
+        <v>136</v>
+      </c>
+      <c r="D91" t="s">
+        <v>61</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="1"/>
+        <v>images/popcat.png</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" t="s">
+        <v>123</v>
+      </c>
+      <c r="B92" t="s">
+        <v>137</v>
+      </c>
+      <c r="C92" t="s">
+        <v>138</v>
+      </c>
+      <c r="D92" t="s">
+        <v>61</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="1"/>
+        <v>images/tiktok.png</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" t="s">
+        <v>123</v>
+      </c>
+      <c r="B93" t="s">
+        <v>139</v>
+      </c>
+      <c r="C93" t="s">
+        <v>140</v>
+      </c>
+      <c r="D93" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="1"/>
+        <v>images/ai.jpg</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" t="s">
+        <v>123</v>
+      </c>
+      <c r="B94" t="s">
+        <v>141</v>
+      </c>
+      <c r="C94" t="s">
+        <v>142</v>
+      </c>
+      <c r="D94" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="1"/>
+        <v>images/fart.jpg</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" t="s">
+        <v>123</v>
+      </c>
+      <c r="B95" t="s">
+        <v>143</v>
+      </c>
+      <c r="C95" t="s">
+        <v>144</v>
+      </c>
+      <c r="D95" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="1"/>
+        <v>images/racism.jpg</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" t="s">
+        <v>123</v>
+      </c>
+      <c r="B96" t="s">
+        <v>146</v>
+      </c>
+      <c r="C96" t="s">
+        <v>145</v>
+      </c>
+      <c r="D96" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="1"/>
+        <v>images/boden.jpeg</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" t="s">
+        <v>123</v>
+      </c>
+      <c r="B97" t="s">
+        <v>147</v>
+      </c>
+      <c r="C97" t="s">
+        <v>148</v>
+      </c>
+      <c r="D97" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="1"/>
+        <v>images/wifhat.jpg</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" t="s">
+        <v>123</v>
+      </c>
+      <c r="B98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C98" t="s">
+        <v>150</v>
+      </c>
+      <c r="D98" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="1"/>
+        <v>images/pepe.jpg</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" t="s">
+        <v>123</v>
+      </c>
+      <c r="B99" t="s">
+        <v>151</v>
+      </c>
+      <c r="C99" t="s">
+        <v>152</v>
+      </c>
+      <c r="D99" t="s">
+        <v>61</v>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" si="1"/>
+        <v>images/if.png</v>
       </c>
     </row>
   </sheetData>

--- a/qNa.xlsx
+++ b/qNa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\nodeJS Projects\question-game-mongo\question-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FA32CD-B11A-4641-BE0C-7598604E6DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D68583B-33AF-4FA5-B6DB-D16F6A860D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{B5493750-8CEC-4764-89FF-16A24E89CE02}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" activeTab="1" xr2:uid="{B5493750-8CEC-4764-89FF-16A24E89CE02}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -875,7 +875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE05C373-7301-457B-97A9-2E78D5550DAF}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1076,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A986139-330D-43C7-B852-0F4329F65909}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2158,11 +2158,11 @@
         <v>106</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="0"/>
-        <v>images/apple.jpg</v>
+        <v>images/apple.JPG</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">

--- a/qNa.xlsx
+++ b/qNa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\nodeJS Projects\question-game-mongo\question-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D68583B-33AF-4FA5-B6DB-D16F6A860D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F652BAC-B8B9-491A-8291-004F1E5D85DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" activeTab="1" xr2:uid="{B5493750-8CEC-4764-89FF-16A24E89CE02}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="153">
   <si>
     <t>you could go to dinner with one of them</t>
   </si>
@@ -543,7 +543,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1074,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A986139-330D-43C7-B852-0F4329F65909}">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2323,7 +2334,7 @@
         <v>8</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" ref="E69:E99" si="1">_xlfn.CONCAT("images/",C69,".",D69)</f>
+        <f t="shared" ref="E69:E97" si="1">_xlfn.CONCAT("images/",C69,".",D69)</f>
         <v>images/trump.jpg</v>
       </c>
     </row>
@@ -2584,17 +2595,17 @@
         <v>122</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="C84" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="D84" t="s">
         <v>8</v>
       </c>
       <c r="E84" t="str">
         <f t="shared" si="1"/>
-        <v>images/lyxe.jpg</v>
+        <v>images/mezoteric.jpg</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2602,17 +2613,17 @@
         <v>122</v>
       </c>
       <c r="B85" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="C85" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="D85" t="s">
         <v>8</v>
       </c>
       <c r="E85" t="str">
         <f t="shared" si="1"/>
-        <v>images/crash.jpg</v>
+        <v>images/kook.jpg</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2620,53 +2631,53 @@
         <v>122</v>
       </c>
       <c r="B86" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C86" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="D86" t="s">
         <v>8</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" si="1"/>
-        <v>images/mezoteric.jpg</v>
+        <v>images/mother.jpg</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B87" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C87" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="D87" t="s">
         <v>8</v>
       </c>
       <c r="E87" t="str">
         <f t="shared" si="1"/>
-        <v>images/kook.jpg</v>
+        <v>images/mother.jpg</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B88" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C88" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="D88" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="1"/>
-        <v>images/mother.jpg</v>
+        <v>images/wif.png</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2674,17 +2685,17 @@
         <v>123</v>
       </c>
       <c r="B89" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C89" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="D89" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" si="1"/>
-        <v>images/mother.jpg</v>
+        <v>images/popcat.png</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2692,17 +2703,17 @@
         <v>123</v>
       </c>
       <c r="B90" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C90" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D90" t="s">
         <v>61</v>
       </c>
       <c r="E90" t="str">
         <f t="shared" si="1"/>
-        <v>images/wif.png</v>
+        <v>images/tiktok.png</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2710,17 +2721,17 @@
         <v>123</v>
       </c>
       <c r="B91" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C91" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D91" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" si="1"/>
-        <v>images/popcat.png</v>
+        <v>images/ai.jpg</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2728,17 +2739,17 @@
         <v>123</v>
       </c>
       <c r="B92" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C92" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D92" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="E92" t="str">
         <f t="shared" si="1"/>
-        <v>images/tiktok.png</v>
+        <v>images/fart.jpg</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2746,17 +2757,17 @@
         <v>123</v>
       </c>
       <c r="B93" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C93" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D93" t="s">
         <v>8</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" si="1"/>
-        <v>images/ai.jpg</v>
+        <v>images/racism.jpg</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2764,17 +2775,17 @@
         <v>123</v>
       </c>
       <c r="B94" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C94" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D94" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E94" t="str">
         <f t="shared" si="1"/>
-        <v>images/fart.jpg</v>
+        <v>images/boden.jpeg</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2782,17 +2793,17 @@
         <v>123</v>
       </c>
       <c r="B95" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C95" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D95" t="s">
         <v>8</v>
       </c>
       <c r="E95" t="str">
         <f t="shared" si="1"/>
-        <v>images/racism.jpg</v>
+        <v>images/wifhat.jpg</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2800,17 +2811,17 @@
         <v>123</v>
       </c>
       <c r="B96" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C96" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D96" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E96" t="str">
         <f t="shared" si="1"/>
-        <v>images/boden.jpeg</v>
+        <v>images/pepe.jpg</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2818,57 +2829,24 @@
         <v>123</v>
       </c>
       <c r="B97" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C97" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D97" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="E97" t="str">
-        <f t="shared" si="1"/>
-        <v>images/wifhat.jpg</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" t="s">
-        <v>123</v>
-      </c>
-      <c r="B98" t="s">
-        <v>149</v>
-      </c>
-      <c r="C98" t="s">
-        <v>150</v>
-      </c>
-      <c r="D98" t="s">
-        <v>8</v>
-      </c>
-      <c r="E98" t="str">
-        <f t="shared" si="1"/>
-        <v>images/pepe.jpg</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" t="s">
-        <v>123</v>
-      </c>
-      <c r="B99" t="s">
-        <v>151</v>
-      </c>
-      <c r="C99" t="s">
-        <v>152</v>
-      </c>
-      <c r="D99" t="s">
-        <v>61</v>
-      </c>
-      <c r="E99" t="str">
         <f t="shared" si="1"/>
         <v>images/if.png</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B68:B86">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>